--- a/Projetos/Rubia_Models/dataset/sample.xlsx
+++ b/Projetos/Rubia_Models/dataset/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazaropd\hub_ia\ai-residency\Projetos\Rubia_Models\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9D16FC3-A3CC-4812-9310-B061AEF5F144}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEBF74C-16BB-423A-8E83-C6A571963EEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B0D926ED-9585-4961-B7C9-24CD1C71B52E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>x1</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>yr</t>
   </si>
 </sst>
 </file>
@@ -394,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74B3ED3-4817-4EC0-8898-2F1635777331}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,8 +424,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -427,11 +445,23 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <f>A2+B2+C2+A2*B2*C2</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <f>5*A2+7*B2+4*C2+1*A2*B2*C2</f>
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <f ca="1">D2+(RAND()-0.5)*20</f>
+        <v>58.374177432419145</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">IF(E2&lt;AVERAGE($D$2:$D$113),"baixo","alto")</f>
+        <v>baixo</v>
+      </c>
+      <c r="G2">
+        <f ca="1">INT(LOG(E2,2))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -442,11 +472,23 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D29" si="0">A3+B3+C3+A3*B3*C3</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D3:D66" si="0">5*A3+7*B3+4*C3+1*A3*B3*C3</f>
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" ca="1" si="1">D3+(RAND()-0.5)*20</f>
+        <v>47.206749824558017</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" ca="1" si="2">IF(E3&lt;AVERAGE($D$2:$D$113),"baixo","alto")</f>
+        <v>baixo</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G29" ca="1" si="3">INT(LOG(E3,2))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -458,10 +500,22 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44.301485547282326</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -473,10 +527,22 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>43.391689004433509</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -488,10 +554,22 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>98.0577656788208</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -503,10 +581,22 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>117.55371822485344</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -518,10 +608,22 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>60.028828478429297</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -533,10 +635,22 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>80.369803439274179</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -548,10 +662,22 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="1"/>
+        <v>162.03480252213825</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -563,10 +689,22 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="1"/>
+        <v>168.27043618128064</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -578,10 +716,22 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="1"/>
+        <v>91.113265290754441</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -593,10 +743,22 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="1"/>
+        <v>95.461440837161987</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -608,10 +770,22 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="1"/>
+        <v>201.59895281300086</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -623,10 +797,22 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="1"/>
+        <v>212.14760566832771</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -638,10 +824,22 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="1"/>
+        <v>122.44823462657054</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -653,10 +851,22 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
+        <v>127.8365517548269</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -668,10 +878,22 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>267.0914900385726</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -683,10 +905,22 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="1"/>
+        <v>254.62356400746617</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -698,10 +932,22 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>150.85542309726142</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -713,10 +959,22 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="1"/>
+        <v>161.63864923134116</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -728,10 +986,22 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="1"/>
+        <v>311.81733815874782</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -743,10 +1013,22 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="1"/>
+        <v>316.29059652980845</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -758,10 +1040,22 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="1"/>
+        <v>177.80905152236986</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -773,10 +1067,22 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="1"/>
+        <v>182.39029831970581</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -788,10 +1094,22 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="1"/>
+        <v>370.95376510816391</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -803,10 +1121,22 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="1"/>
+        <v>373.73653558640842</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -818,10 +1148,22 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="1"/>
+        <v>200.182912165494</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -833,7 +1175,2287 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="1"/>
+        <v>209.17410980693361</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="1"/>
+        <v>410.14531689590433</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G30">
+        <f ca="1">INT(LOG(E30,2))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="1"/>
+        <v>410.16004305613478</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G57" ca="1" si="4">INT(LOG(E31,2))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="1"/>
+        <v>234.75020105490898</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="1"/>
+        <v>241.74589194535415</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>468</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="1"/>
+        <v>472.65327062985466</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>472</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="1"/>
+        <v>475.2595575922071</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="1"/>
+        <v>259.7767833526251</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="1"/>
+        <v>262.63470738297582</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="1"/>
+        <v>526.28005685128733</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>524</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="1"/>
+        <v>532.65345971158877</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="1"/>
+        <v>278.34389603404145</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="1"/>
+        <v>288.81076034082145</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>572</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="1"/>
+        <v>579.78314768346934</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="1"/>
+        <v>580.97922224715944</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="1"/>
+        <v>320.41032416925242</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="1"/>
+        <v>326.28363746992665</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="1"/>
+        <v>628.39478846997645</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>alto</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>628</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="1"/>
+        <v>622.56683062384025</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>alto</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="1"/>
+        <v>350.73641470636454</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>354</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="1"/>
+        <v>352.05242563796668</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>676</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="1"/>
+        <v>680.94737537853746</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>alto</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>680</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="1"/>
+        <v>685.90993939516977</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>alto</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="1"/>
+        <v>380.52742534973788</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="1"/>
+        <v>376.52905525365969</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>728</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="1"/>
+        <v>737.59715874138328</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>alto</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>732</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="1"/>
+        <v>731.19676207450607</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>alto</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="1"/>
+        <v>405.83482739543763</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="1"/>
+        <v>413.57421618132452</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="1"/>
+        <v>787.67934045041784</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>alto</v>
+      </c>
+      <c r="G58">
+        <f ca="1">INT(LOG(E58,2))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>784</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="1"/>
+        <v>774.16397341924699</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>alto</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ref="G59:G85" ca="1" si="5">INT(LOG(E59,2))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>428</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="1"/>
+        <v>432.17073126583915</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="1"/>
+        <v>433.84237417553697</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>832</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="1"/>
+        <v>838.99368439161799</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>alto</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>836</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="1"/>
+        <v>844.60415520031052</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>alto</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="1"/>
+        <v>452.99566608952227</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>466</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="1"/>
+        <v>468.45412296403515</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>baixo</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>884</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="1"/>
+        <v>885.1728731506247</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>alto</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D113" si="6">5*A67+7*B67+4*C67+1*A67*B67*C67</f>
+        <v>888</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E113" ca="1" si="7">D67+(RAND()-0.5)*20</f>
+        <v>895.43785537943074</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F113" ca="1" si="8">IF(E67&lt;AVERAGE($D$2:$D$113),"baixo","alto")</f>
+        <v>alto</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>484</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="7"/>
+        <v>492.309429284153</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>baixo</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>494</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="7"/>
+        <v>490.5683926410253</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>baixo</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>936</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="7"/>
+        <v>935.42617530005953</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>940</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="7"/>
+        <v>946.88545443417161</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>512</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="7"/>
+        <v>514.86980764685563</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>baixo</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>522</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="7"/>
+        <v>526.29720824904143</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>baixo</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>988</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="7"/>
+        <v>980.22469745133594</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G74">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>992</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="7"/>
+        <v>992.52278250336826</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>540</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="7"/>
+        <v>533.08078478994662</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>baixo</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>550</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="7"/>
+        <v>551.48914937309303</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>baixo</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>1040</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="7"/>
+        <v>1049.9650979019405</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>1044</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="7"/>
+        <v>1052.0650850992238</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="6"/>
+        <v>568</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="7"/>
+        <v>563.69151174324043</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>baixo</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>578</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="7"/>
+        <v>579.31399885211681</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>baixo</v>
+      </c>
+      <c r="G81">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="6"/>
+        <v>1092</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="7"/>
+        <v>1096.4679133558652</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="6"/>
+        <v>1096</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="7"/>
+        <v>1091.6648033665597</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>596</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="7"/>
+        <v>596.07173288529282</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>606</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="7"/>
+        <v>608.79108911564254</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="6"/>
+        <v>1144</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="7"/>
+        <v>1147.3687855802436</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G86">
+        <f ca="1">INT(LOG(E86,2))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="6"/>
+        <v>1148</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="7"/>
+        <v>1139.5924044467959</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ref="G87:G113" ca="1" si="9">INT(LOG(E87,2))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="6"/>
+        <v>624</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="7"/>
+        <v>621.66007411383998</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G88">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="6"/>
+        <v>634</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="7"/>
+        <v>624.74696721814485</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="6"/>
+        <v>1196</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="7"/>
+        <v>1190.7966243385192</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="7"/>
+        <v>1194.0573696076431</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G91">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="6"/>
+        <v>652</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="7"/>
+        <v>646.83517795783484</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="6"/>
+        <v>662</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="7"/>
+        <v>667.02968369833309</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G93">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="6"/>
+        <v>1248</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="7"/>
+        <v>1241.5176845032831</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="6"/>
+        <v>1252</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="7"/>
+        <v>1256.8627634318427</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G95">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="6"/>
+        <v>680</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="7"/>
+        <v>681.35165154562765</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G96">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="6"/>
+        <v>690</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="7"/>
+        <v>689.66213037198372</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="6"/>
+        <v>1300</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="7"/>
+        <v>1300.3345808827762</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G98">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="6"/>
+        <v>1304</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="7"/>
+        <v>1306.7952044100546</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="6"/>
+        <v>708</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="7"/>
+        <v>702.99041567807888</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G100">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="6"/>
+        <v>718</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="7"/>
+        <v>712.42124275325932</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="6"/>
+        <v>1352</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ca="1" si="7"/>
+        <v>1357.2790323418124</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G102">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="6"/>
+        <v>1356</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ca="1" si="7"/>
+        <v>1359.0264700212765</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G103">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="6"/>
+        <v>736</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ca="1" si="7"/>
+        <v>726.95515937260325</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G104">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="6"/>
+        <v>746</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ca="1" si="7"/>
+        <v>736.5051309268282</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G105">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="6"/>
+        <v>1404</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ca="1" si="7"/>
+        <v>1404.8148733412856</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G106">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="6"/>
+        <v>1408</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ca="1" si="7"/>
+        <v>1402.6834457781511</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G107">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="6"/>
+        <v>764</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ca="1" si="7"/>
+        <v>760.77597818006268</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G108">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="6"/>
+        <v>774</v>
+      </c>
+      <c r="E109">
+        <f t="shared" ca="1" si="7"/>
+        <v>766.97704104305262</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G109">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>8</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="6"/>
+        <v>1456</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ca="1" si="7"/>
+        <v>1449.227077384812</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G110">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="6"/>
+        <v>1460</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ca="1" si="7"/>
+        <v>1454.4333572356295</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G111">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="6"/>
+        <v>792</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ca="1" si="7"/>
+        <v>788.54622859009896</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G112">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="6"/>
+        <v>802</v>
+      </c>
+      <c r="E113">
+        <f t="shared" ca="1" si="7"/>
+        <v>797.50824600928274</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>alto</v>
+      </c>
+      <c r="G113">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
